--- a/data/georgia_census/shida-qartli/qareli/healthcare_staff.xlsx
+++ b/data/georgia_census/shida-qartli/qareli/healthcare_staff.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EDF182-8EFD-4CDA-B9B9-08DBBF6F08CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6039CE4-1197-48BF-B513-EF3BA5B54FCD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE9FC075-C257-4695-8216-73BA56602BB4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9204F05-BA81-446D-83D4-2B8BAB29CD9D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACC1F77C-B144-4C74-AA6E-63F092A7D6F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8D908D8-178A-4AE6-8E17-CE53479C8DD8}"/>
 </file>